--- a/individual_results/avey/204.xlsx
+++ b/individual_results/avey/204.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
         <v>0.6666666666666666</v>
@@ -713,9 +713,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0.4</v>
@@ -757,7 +755,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C5" t="n">
         <v>0.5555555555555556</v>
@@ -772,9 +770,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0.4545454545454545</v>
@@ -816,7 +812,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="C6" t="n">
         <v>0.8262346571285599</v>
@@ -834,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1053,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1123,9 +1119,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>1</v>
